--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>内容:编写web端管理员ui交互效果雏形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱培松</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:设计数据库E-R模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -260,28 +268,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +596,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,12 +607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -669,26 +677,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -753,26 +761,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -855,26 +863,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -921,8 +929,12 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
     </row>
@@ -939,18 +951,18 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -125,7 +125,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:设计数据库E-R模型</t>
+    <t>王一鸣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄龙强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:设计数据库逻辑模型的entity、物理模型的table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李福森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:初步编写android ui代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:初步编写web端普通用户的ui界面代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +940,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -933,20 +953,28 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
     </row>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -36,124 +36,98 @@
     <t>陈添楠</t>
   </si>
   <si>
+    <t>查看综合实训指导书.编写用例，内容：编写android前端手机用户的功能用例UML图.</t>
+  </si>
+  <si>
     <t>王一鸣</t>
   </si>
   <si>
+    <t>查看综合实训指导书.编写用例，内容：编写web前端普通用户的功能用例UML.</t>
+  </si>
+  <si>
     <t>邱培松</t>
   </si>
   <si>
+    <t>查看综合实训指导书.编写用例，内容：编写web前端管理员的功能用例UML.</t>
+  </si>
+  <si>
+    <t>总结：系统的功能结构还有不完善部分</t>
+  </si>
+  <si>
     <t>日期：2018.9.29 第五周周六</t>
   </si>
   <si>
+    <t>查看综合实训指导书.编写用例，内容：完善android前端手机用户的功能用例UML图.</t>
+  </si>
+  <si>
+    <t>查看综合实训指导书.编写用例，内容：完善web前端普通用户的功能用例UML.</t>
+  </si>
+  <si>
+    <t>查看综合实训指导书.编写用例，内容：完善web前端管理员的功能用例UML.</t>
+  </si>
+  <si>
+    <t>总结：完善了功能用例后.对系统的功能结构有了新的认识</t>
+  </si>
+  <si>
     <t>日期：2018.10.10 第七周周三</t>
   </si>
   <si>
-    <t>内容:编写android程序ui设计</t>
-  </si>
-  <si>
-    <t>内容:编写android程序ui交互效果雏形</t>
+    <t>内容:完成android程序ui设计</t>
+  </si>
+  <si>
+    <t>内容:完成android程序ui交互效果雏形</t>
   </si>
   <si>
     <t>内容:编写android程序用例规约</t>
   </si>
   <si>
-    <t>查看综合实训指导书.编写用例，内容：编写android前端手机用户的功能用例UML图.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看综合实训指导书.编写用例，内容：编写web前端普通用户的功能用例UML.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看综合实训指导书.编写用例，内容：编写web前端管理员的功能用例UML.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看综合实训指导书.编写用例，内容：完善android前端手机用户的功能用例UML图.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看综合实训指导书.编写用例，内容：完善web前端普通用户的功能用例UML.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看综合实训指导书.编写用例，内容：完善web前端管理员的功能用例UML.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>内容:完成web端ui设计(普通用户)</t>
+  </si>
+  <si>
+    <t>内容:完成web端普通用户ui交互效果雏形</t>
+  </si>
+  <si>
+    <t>总结：学习了界面设计的颜色和谐搭配,学会了使用墨刀界面设计软件</t>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第八周周一</t>
+  </si>
+  <si>
+    <t>内容:完成web端ui设计(管理员)</t>
+  </si>
+  <si>
+    <t>内容:完成web端管理员ui交互效果雏形</t>
+  </si>
+  <si>
+    <t>内容:设计数据库逻辑模型的entity、物理模型的table</t>
+  </si>
+  <si>
+    <t>黄龙强</t>
+  </si>
+  <si>
+    <t>内容:初步编写android ui代码</t>
+  </si>
+  <si>
+    <t>李福森</t>
+  </si>
+  <si>
+    <t>内容:初步编写web端普通用户的ui界面代码</t>
   </si>
   <si>
     <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：学习了界面设计的颜色和谐搭配,学会了使用墨刀界面设计软件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端用例规约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：完善了功能用例后.对系统的功能结构有了新的认识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：系统的功能结构还有不完善部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第八周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端ui设计(普通用户)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端普通用户ui交互效果雏形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端ui设计(管理员)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端管理员ui交互效果雏形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱培松</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王一鸣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄龙强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:设计数据库逻辑模型的entity、物理模型的table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李福森</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:初步编写android ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:初步编写web端普通用户的ui界面代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,21 +144,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -208,7 +506,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -217,9 +517,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -269,9 +567,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -279,6 +819,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -287,13 +830,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -306,17 +852,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -607,432 +1194,444 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A37:D38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A37:D38"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,7 +145,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +175,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,37 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,53 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -280,9 +281,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,19 +297,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,61 +435,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,97 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -607,11 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +638,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,32 +665,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,145 +673,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1537,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D33" s="3"/>
     </row>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -115,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:初步编写android ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内容:编写android ui代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,11 +139,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:做啊楠的技术顾问</t>
+    <t>内容:完成数据库物理模型table-relative图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:完成数据库物理模型table-relative图</t>
+    <t>内容:找android和web端界面ui素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:初步编写android ui界面代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,6 +290,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -310,9 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +618,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,12 +629,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -699,26 +699,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -783,26 +783,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -885,26 +885,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3">
         <v>0.2</v>
@@ -987,26 +987,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
@@ -1057,10 +1057,10 @@
         <v>27</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1069,10 +1069,10 @@
         <v>28</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1083,31 +1083,31 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A47:D48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -69,9 +69,6 @@
     <t>总结：完善了功能用例后.对系统的功能结构有了新的认识</t>
   </si>
   <si>
-    <t>日期：2018.10.10 第七周周三</t>
-  </si>
-  <si>
     <t>内容:完成android程序ui设计</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>总结：学习了界面设计的颜色和谐搭配,学会了使用墨刀界面设计软件</t>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第八周周一</t>
   </si>
   <si>
     <t>内容:完成web端ui设计(管理员)</t>
@@ -123,10 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.15 第八周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内容:设计数据库逻辑模型的entity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,6 +138,18 @@
   </si>
   <si>
     <t>内容:初步编写android ui界面代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,29 +292,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +620,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,12 +631,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -699,26 +701,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -783,26 +785,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -823,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -835,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -847,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -859,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -871,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -885,26 +887,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -925,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -937,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -949,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -958,10 +960,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3">
         <v>0.2</v>
@@ -970,10 +972,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3">
         <v>0.15</v>
@@ -987,26 +989,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1027,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
@@ -1037,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
@@ -1047,32 +1049,32 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1083,31 +1085,31 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A37:D38"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -141,15 +141,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.10 第七周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2018.10.15 第七周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.10.15 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,6 +292,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -312,9 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +620,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,12 +631,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -701,26 +701,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -785,26 +785,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -887,26 +887,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -989,26 +989,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1085,31 +1085,31 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A47:D48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>内容:设计数据库逻辑模型的entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -292,29 +288,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +616,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,12 +627,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -701,26 +697,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -785,26 +781,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -887,26 +883,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -963,7 +959,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3">
         <v>0.2</v>
@@ -989,26 +985,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1029,9 +1025,11 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.1</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -1039,9 +1037,11 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.35</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -1049,9 +1049,11 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1061,8 +1063,8 @@
       <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>33</v>
+      <c r="C44" s="3">
+        <v>0.28000000000000003</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1073,8 +1075,8 @@
       <c r="B45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>33</v>
+      <c r="C45" s="3">
+        <v>0.2</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1085,31 +1087,31 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A37:D38"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -117,18 +117,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:设计数据库逻辑模型的entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内容:编写网页的js代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:完成数据库物理模型table-relative图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内容:找android和web端界面ui素材</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,6 +138,14 @@
   </si>
   <si>
     <t>日期：2018.10.10 第六周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:完成数据库物理模型图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:设计数据库逻辑模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,6 +288,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -308,9 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +616,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="A27" sqref="A27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,12 +627,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -697,26 +697,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -781,26 +781,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -883,26 +883,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -947,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="3">
         <v>0.2</v>
@@ -985,26 +985,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>0.1</v>
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="3">
         <v>0.35</v>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1087,31 +1087,31 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A47:D48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>内容:设计数据库逻辑模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目评审</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,9 +296,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -311,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,12 +635,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -697,26 +705,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -781,26 +789,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -883,26 +891,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -985,26 +993,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1087,31 +1095,109 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A37:D38"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -69,6 +69,9 @@
     <t>总结：完善了功能用例后.对系统的功能结构有了新的认识</t>
   </si>
   <si>
+    <t>日期：2018.10.10 第六周周三</t>
+  </si>
+  <si>
     <t>内容:完成android程序ui设计</t>
   </si>
   <si>
@@ -87,15 +90,24 @@
     <t>总结：学习了界面设计的颜色和谐搭配,学会了使用墨刀界面设计软件</t>
   </si>
   <si>
+    <t>日期：2018.10.15 第七周周一</t>
+  </si>
+  <si>
     <t>内容:完成web端ui设计(管理员)</t>
   </si>
   <si>
     <t>内容:完成web端管理员ui交互效果雏形</t>
   </si>
   <si>
+    <t>内容:设计数据库逻辑模型</t>
+  </si>
+  <si>
     <t>黄龙强</t>
   </si>
   <si>
+    <t>内容:初步编写android ui界面代码</t>
+  </si>
+  <si>
     <t>李福森</t>
   </si>
   <si>
@@ -105,63 +117,50 @@
     <t>总结：</t>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>日期：2018.10.15 第七周周三</t>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的js代码</t>
+  </si>
+  <si>
+    <t>内容:找android和web端界面ui素材</t>
+  </si>
+  <si>
+    <t>内容:完成数据库物理模型图</t>
   </si>
   <si>
     <t>内容:编写android ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内容:编写web端普通用户ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写网页的js代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:找android和web端界面ui素材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:初步编写android ui界面代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第七周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第七周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.10 第六周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:完成数据库物理模型图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:设计数据库逻辑模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.10.15 第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>项目评审</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第八周周一</t>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的ui代码</t>
+  </si>
+  <si>
+    <t>内容:创建数据库.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,21 +177,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -277,9 +600,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -287,6 +852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +863,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,17 +885,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -615,620 +1227,730 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="B62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="C65" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A57:D58"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D58"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A37:D38"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A67:D68"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>内容:创建数据库.</t>
+  </si>
+  <si>
+    <t>内容:编写技术文档</t>
   </si>
 </sst>
 </file>
@@ -155,9 +158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -184,6 +187,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -192,27 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -244,8 +293,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,68 +323,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,187 +333,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,10 +604,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -628,8 +672,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,23 +681,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,32 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,7 +1239,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1660,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="C42" s="4">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -1871,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C65" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3"/>
     </row>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -123,9 +123,6 @@
     <t>内容:编写web端普通用户的js代码</t>
   </si>
   <si>
-    <t>内容:找android和web端界面ui素材</t>
-  </si>
-  <si>
     <t>内容:完成数据库物理模型图</t>
   </si>
   <si>
@@ -153,7 +150,27 @@
     <t>内容:编写技术文档</t>
   </si>
   <si>
-    <t>日期：2018.10.15 第八周周四</t>
+    <t>内容:编写android ui代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写网络交互处理模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:查询webSocket相关资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的js代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的ui代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第八周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -161,23 +178,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:编写android ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内容:编写网络交互处理模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:查询webSocket相关资料</t>
+    <t>内容:找android和web端界面ui素材</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容:编写web端普通用户的js代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端普通用户的ui代码</t>
+    <t>内容:找android和web端界面ui素材</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -320,9 +329,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -340,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -645,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F78" activeCellId="1" sqref="B85 F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,15 +665,16 @@
     <col min="2" max="2" width="91" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="6" max="6" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -743,12 +753,12 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -827,12 +837,12 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -915,26 +925,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1017,26 +1027,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1069,10 +1079,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1081,7 +1091,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1093,7 +1103,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3">
         <v>0.5</v>
@@ -1105,7 +1115,7 @@
         <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="3">
         <v>0.2</v>
@@ -1119,26 +1129,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1157,7 +1167,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -1195,26 +1205,26 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="A59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
@@ -1235,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" s="3">
         <v>0.5</v>
@@ -1259,7 +1269,7 @@
         <v>28</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="3">
         <v>0.8</v>
@@ -1271,10 +1281,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -1283,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1297,26 +1307,26 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -1337,9 +1347,11 @@
         <v>30</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.7</v>
+      </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -1347,9 +1359,11 @@
         <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.6</v>
+      </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -1357,9 +1371,11 @@
         <v>28</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.9</v>
+      </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -1367,9 +1383,11 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.6</v>
+      </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -1377,9 +1395,11 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -1389,27 +1409,115 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="A77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A67:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A57:D58"/>
+  <mergeCells count="18">
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A87:D88"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A37:D38"/>
     <mergeCell ref="A47:D48"/>
@@ -1420,6 +1528,12 @@
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>内容:找android和web端界面ui素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第八周周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,6 +333,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -346,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -657,7 +661,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F78" activeCellId="1" sqref="B85 F78"/>
+      <selection activeCell="A79" sqref="A79:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,12 +673,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -753,12 +757,12 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -837,12 +841,12 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -925,26 +929,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1027,26 +1031,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1129,26 +1133,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1205,26 +1209,26 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
@@ -1307,26 +1311,26 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -1409,26 +1413,26 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="A79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -1501,26 +1505,21 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A19:D19"/>
@@ -1528,6 +1527,11 @@
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A67:D68"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A77:D78"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -336,6 +336,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -352,9 +355,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,18 +743,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -827,18 +827,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -929,18 +929,18 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
@@ -1031,18 +1031,18 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
@@ -1133,18 +1133,18 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
@@ -1209,18 +1209,18 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -1311,18 +1311,18 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
@@ -1413,18 +1413,18 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
@@ -1455,7 +1455,9 @@
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -1465,7 +1467,9 @@
       <c r="B82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3">
+        <v>0.48</v>
+      </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -1475,7 +1479,9 @@
       <c r="B83" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3">
+        <v>0.94</v>
+      </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -1485,7 +1491,9 @@
       <c r="B84" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -1495,7 +1503,9 @@
       <c r="B85" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -1505,28 +1515,21 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A87:D88"/>
     <mergeCell ref="A27:D28"/>
@@ -1538,6 +1541,13 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A57:D58"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>日期：2018.10.15 第八周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第九周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:找android和web端界面ui素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写android ui代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -336,9 +348,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -355,6 +364,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,18 +755,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -827,18 +839,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -929,18 +941,18 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
@@ -1031,18 +1043,18 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
@@ -1133,18 +1145,18 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
@@ -1209,18 +1221,18 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -1311,18 +1323,18 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
@@ -1413,18 +1425,18 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
@@ -1515,21 +1527,122 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A87:D88"/>
     <mergeCell ref="A27:D28"/>
@@ -1541,13 +1654,6 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A57:D58"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>内容:编写android ui代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第九周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1569,7 +1573,9 @@
       <c r="B91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3">
+        <v>0.6</v>
+      </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -1579,7 +1585,9 @@
       <c r="B92" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3">
+        <v>0.54</v>
+      </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -1589,7 +1597,9 @@
       <c r="B93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3">
+        <v>0.94</v>
+      </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -1599,7 +1609,9 @@
       <c r="B94" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3">
+        <v>0.85</v>
+      </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -1609,7 +1621,9 @@
       <c r="B95" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3">
+        <v>0.85</v>
+      </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -1632,8 +1646,106 @@
       <c r="C98" s="9"/>
       <c r="D98" s="10"/>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="A99:D99"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A97:D98"/>
     <mergeCell ref="A1:D1"/>
@@ -1650,10 +1762,6 @@
     <mergeCell ref="A47:D48"/>
     <mergeCell ref="A67:D68"/>
     <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A57:D58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -90,123 +90,143 @@
     <t>总结：学习了界面设计的颜色和谐搭配,学会了使用墨刀界面设计软件</t>
   </si>
   <si>
+    <t>内容:完成web端ui设计(管理员)</t>
+  </si>
+  <si>
+    <t>内容:完成web端管理员ui交互效果雏形</t>
+  </si>
+  <si>
+    <t>内容:设计数据库逻辑模型</t>
+  </si>
+  <si>
+    <t>黄龙强</t>
+  </si>
+  <si>
+    <t>内容:初步编写android ui界面代码</t>
+  </si>
+  <si>
+    <t>李福森</t>
+  </si>
+  <si>
+    <t>内容:初步编写web端普通用户的ui界面代码</t>
+  </si>
+  <si>
+    <t>总结：</t>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的js代码</t>
+  </si>
+  <si>
+    <t>内容:完成数据库物理模型图</t>
+  </si>
+  <si>
+    <t>内容:编写android ui代码</t>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户ui代码</t>
+  </si>
+  <si>
+    <t>项目评审</t>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的ui代码</t>
+  </si>
+  <si>
+    <t>内容:创建数据库.</t>
+  </si>
+  <si>
+    <t>内容:编写技术文档</t>
+  </si>
+  <si>
+    <t>内容:编写android ui代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写网络交互处理模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:查询webSocket相关资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的js代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写web端普通用户的ui代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写网络交互处理模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:找android和web端界面ui素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:找android和web端界面ui素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:找android和web端界面ui素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写android ui代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:找android和web端界面ui素材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写与服务器交互的模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容:编写网络交互处理模块,集成聊天模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>日期：2018.10.15 第七周周一</t>
-  </si>
-  <si>
-    <t>内容:完成web端ui设计(管理员)</t>
-  </si>
-  <si>
-    <t>内容:完成web端管理员ui交互效果雏形</t>
-  </si>
-  <si>
-    <t>内容:设计数据库逻辑模型</t>
-  </si>
-  <si>
-    <t>黄龙强</t>
-  </si>
-  <si>
-    <t>内容:初步编写android ui界面代码</t>
-  </si>
-  <si>
-    <t>李福森</t>
-  </si>
-  <si>
-    <t>内容:初步编写web端普通用户的ui界面代码</t>
-  </si>
-  <si>
-    <t>总结：</t>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第七周周三</t>
-  </si>
-  <si>
-    <t>内容:编写web端普通用户的js代码</t>
-  </si>
-  <si>
-    <t>内容:完成数据库物理模型图</t>
-  </si>
-  <si>
-    <t>内容:编写android ui代码</t>
-  </si>
-  <si>
-    <t>内容:编写web端普通用户ui代码</t>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第七周周四</t>
-  </si>
-  <si>
-    <t>项目评审</t>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第八周周一</t>
-  </si>
-  <si>
-    <t>内容:编写web端普通用户的ui代码</t>
-  </si>
-  <si>
-    <t>内容:创建数据库.</t>
-  </si>
-  <si>
-    <t>内容:编写技术文档</t>
-  </si>
-  <si>
-    <t>内容:编写android ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写网络交互处理模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:查询webSocket相关资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端普通用户的js代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写web端普通用户的ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第八周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写网络交互处理模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:找android和web端界面ui素材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:找android和web端界面ui素材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第八周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第九周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:找android和web端界面ui素材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容:编写android ui代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.15 第九周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.24 第八周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.25 第八周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29 第九周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.1 第九周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -349,9 +369,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -369,6 +386,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -674,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,12 +709,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -773,12 +793,12 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -857,12 +877,12 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -945,26 +965,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -985,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -997,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1009,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1018,10 +1038,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>0.2</v>
@@ -1030,10 +1050,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>0.15</v>
@@ -1047,26 +1067,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1087,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>0.1</v>
@@ -1099,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3">
         <v>0.6</v>
@@ -1111,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -1120,10 +1140,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="3">
         <v>0.5</v>
@@ -1132,10 +1152,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" s="3">
         <v>0.2</v>
@@ -1149,26 +1169,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1187,7 +1207,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -1225,26 +1245,26 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="A59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
@@ -1262,10 +1282,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C61" s="3">
         <v>0.5</v>
@@ -1277,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62" s="3">
         <v>0.4</v>
@@ -1286,10 +1306,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3">
         <v>0.8</v>
@@ -1301,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -1313,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -1327,26 +1347,26 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="A67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -1364,10 +1384,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C71" s="3">
         <v>0.7</v>
@@ -1379,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C72" s="3">
         <v>0.6</v>
@@ -1388,10 +1408,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C73" s="3">
         <v>0.9</v>
@@ -1403,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C74" s="3">
         <v>0.6</v>
@@ -1415,7 +1435,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -1429,26 +1449,26 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="A77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="A79" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -1466,10 +1486,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C81" s="3">
         <v>0.55000000000000004</v>
@@ -1481,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C82" s="3">
         <v>0.48</v>
@@ -1490,10 +1510,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C83" s="3">
         <v>0.94</v>
@@ -1505,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C84" s="3">
         <v>0.8</v>
@@ -1517,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C85" s="3">
         <v>0.8</v>
@@ -1531,26 +1551,26 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
+      <c r="A87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="A89" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
@@ -1568,10 +1588,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C91" s="3">
         <v>0.6</v>
@@ -1583,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C92" s="3">
         <v>0.54</v>
@@ -1592,10 +1612,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C93" s="3">
         <v>0.94</v>
@@ -1607,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C94" s="3">
         <v>0.85</v>
@@ -1619,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C95" s="3">
         <v>0.85</v>
@@ -1633,26 +1653,26 @@
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="A97" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="A99" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -1670,12 +1690,14 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.65</v>
+      </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -1683,19 +1705,23 @@
         <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.6</v>
+      </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C103" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.96</v>
+      </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -1703,9 +1729,11 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C104" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.89</v>
+      </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -1713,9 +1741,11 @@
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.96</v>
+      </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -1725,21 +1755,127 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
+      <c r="A107" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A37:D38"/>
     <mergeCell ref="A107:D108"/>
     <mergeCell ref="A77:D78"/>
     <mergeCell ref="A49:D49"/>
@@ -1748,20 +1884,8 @@
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A87:D88"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A67:D68"/>
-    <mergeCell ref="A69:D69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第06组/06组项目计划表.xlsx
+++ b/第06组/06组项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="59">
   <si>
     <t>日期：2018.9.27 第五周周四</t>
   </si>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>日期：2018.11.7 第十周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.7 第十周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,9 +337,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -355,8 +356,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:D129"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,12 +684,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -758,12 +768,12 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -842,12 +852,12 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -930,26 +940,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1032,26 +1042,26 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1134,26 +1144,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1210,26 +1220,26 @@
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
@@ -1312,26 +1322,26 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -1414,26 +1424,26 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -1516,26 +1526,26 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
@@ -1618,26 +1628,26 @@
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -1720,26 +1730,26 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -1822,26 +1832,26 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="7"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="8"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="10"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
@@ -1924,26 +1934,26 @@
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="7"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="10"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
@@ -1966,7 +1976,9 @@
       <c r="B131" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3">
+        <v>0.75</v>
+      </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
@@ -1976,7 +1988,9 @@
       <c r="B132" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3">
+        <v>0.68</v>
+      </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
@@ -1986,7 +2000,9 @@
       <c r="B133" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3">
+        <v>0.75</v>
+      </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
@@ -1996,7 +2012,9 @@
       <c r="B134" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3">
+        <v>0.94</v>
+      </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -2006,7 +2024,9 @@
       <c r="B135" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
@@ -2016,27 +2036,142 @@
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="10"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="13"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A127:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A137:D138"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A119:D119"/>
+  <mergeCells count="30">
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A147:D148"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A37:D38"/>
     <mergeCell ref="A47:D48"/>
     <mergeCell ref="A67:D68"/>
     <mergeCell ref="A117:D118"/>
@@ -2050,15 +2185,12 @@
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A137:D138"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A119:D119"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
